--- a/database/masters/data-seeder.xlsx
+++ b/database/masters/data-seeder.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monoland/Documents/SiRUHAY/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monoland/Herd/devsiruhay/modules/posyandu/database/masters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3597F365-102C-7644-89AF-D01CF54DA865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4111C1-8892-4845-A1A2-51CC308B43E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{88509390-9D79-EC44-A899-AADF9E467E17}"/>
   </bookViews>
@@ -563,7 +563,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/database/masters/data-seeder.xlsx
+++ b/database/masters/data-seeder.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monoland/Herd/devsiruhay/modules/posyandu/database/masters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4111C1-8892-4845-A1A2-51CC308B43E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D04EC705-B05F-B242-8F0D-BF9A6BE6946F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{88509390-9D79-EC44-A899-AADF9E467E17}"/>
   </bookViews>
   <sheets>
     <sheet name="services" sheetId="1" r:id="rId1"/>
-    <sheet name="subservices" sheetId="2" r:id="rId2"/>
+    <sheet name="categories" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>id</t>
   </si>
@@ -44,105 +44,56 @@
     <t>name</t>
   </si>
   <si>
-    <t>Pendidikan</t>
-  </si>
-  <si>
-    <t>Kesehatan</t>
-  </si>
-  <si>
-    <t>Pekerjaan Umum</t>
-  </si>
-  <si>
-    <t>Perumahan Rakyat</t>
-  </si>
-  <si>
-    <t>Sosial</t>
-  </si>
-  <si>
-    <t>Ketenteraman, Ketertiban Umum, Perlindungan Masyarakat</t>
-  </si>
-  <si>
-    <t>service_id</t>
-  </si>
-  <si>
-    <t>Pendidikan Anak Usia Dini</t>
-  </si>
-  <si>
-    <t>Penguatan Pemanfaatan Literasi Digital</t>
-  </si>
-  <si>
-    <t>Identifikasi Penyediaan Alat Peraga Edukasi</t>
-  </si>
-  <si>
-    <t>Penggerakan Kunjungan Posyandu Bagi Sasaran Ibu, Bayi, Balita, Anak Usia Pra Sekolah, Usia Sekolah Remaja, Dewasa dan Lanjut Usia</t>
-  </si>
-  <si>
-    <t>Penyuluhan Kesehatan dan Gizi Ibu, Bayi, Balita, Anak Usia Pra Sekolah, Usia Sekolah Remaja, Dewasa dan Lanjut Usia</t>
-  </si>
-  <si>
-    <t>Deteksi Dini Resiko Masalah Kesehatan Ibu, Bayi, Balita, Anak Usia Pra Sekolah, Usia Sekolah Remaja, Dewasa dan Lanjut Usia</t>
-  </si>
-  <si>
-    <t>Rujukan ke Unit Kesehatan Desa/Kelurahan atau Pusat Kesehatan Masyarakat Bagi Ibu, Bayi, Balita, Anak Usia Pra Sekolah, Usia Sekolah Remaja, Dewasa dan lanjut Usia yang Memiliki Resiko Masalah Kesehatan</t>
-  </si>
-  <si>
-    <t>Pemantauan Perilaku Kepatuhan Keluarga Mendapatkan Pelayanan Kesehatan Minimal, Melaksanakan Pengobatan Hipertensi, Diabetes, Kesehatan Lingkungan Rumah</t>
-  </si>
-  <si>
-    <t>Penjangkauan Akses Yang Terdiri Atas: Imunisasi, Vitamin A, Tablet Tambah Darah</t>
-  </si>
-  <si>
-    <t>Edukasi Pemenuhan Kebutuhan Pokok Air Bersih dan Pengelolaan Limbah Domestik/Rumah Tangga, Serta Melakukan Pengelolaan Sampah di Desa</t>
-  </si>
-  <si>
-    <t>Identifikasi dan Pemeliharaan Embung Air Baku</t>
-  </si>
-  <si>
-    <t>Pemeliharaan Jaringan Air Pedesaan</t>
-  </si>
-  <si>
-    <t>Identifikasi dan Rehabilitasi Sumur Air Tanah Untuk Air Baku</t>
-  </si>
-  <si>
-    <t>Identifikasi Kebutuhan Pembangunan Jalan Desa</t>
-  </si>
-  <si>
-    <t>Identifikasi Penyediaan dan Rehabilitasi Rumah Yang Layak Huni</t>
-  </si>
-  <si>
-    <t>Komunikasi, Informasi, dan Edukasi Lingkungan Yang Bersih dan Sehat, Pengelolaan Perkarangan Rumah Untuk Budi Daya Tanaman Pangan Lokal Dalam Mendukung Penganekaragaman Konsumsi Pangan, Pembuatan Biopori, Hidroponik Dipekarangan Rumah</t>
-  </si>
-  <si>
-    <t>Penyuluhan dan Rehabilitasi Trauma Pasca Bencana</t>
-  </si>
-  <si>
-    <t>Melakukan Komunikasi, Informasi, dan Edukasi Terhadap Kesiapsiagaan Bencana</t>
-  </si>
-  <si>
-    <t>Pencegahan Gangguan, Ketentraman, dan Ketertiban Umum Melalui Deteksi Dini dan Cegah Dini</t>
-  </si>
-  <si>
-    <t>Pembinaan dan Penyuluhan Pelaksanaan Patroli Pengamanan Pemberdayaan Perlindungan Masyarakat Dalam Rangka Ketenteraman, Ketertiban Umum, dan Keamanan Lingkungan</t>
-  </si>
-  <si>
-    <t>Komunikasi, Informasi, dan Edukasi Dalam Kesetaraan dan Keadilan Gender, Disabilitas, Kesiapsiagaan Bencana, dan Inklusi Sosial</t>
-  </si>
-  <si>
-    <t>Identifikasi dan Pendataan Fakir Miskin Masyarakat Yang Tidak Mampu Untuk Mendapatkan Bantuan Sosial Kesejahteraan Keluarga</t>
-  </si>
-  <si>
-    <t>Memfasilitasi dan/atau Menyalurkan Bantuan Sosial Sesuai Dengan Ketentuan Peraturan Perundang-Undangan</t>
-  </si>
-  <si>
-    <t>Identifikasi Ketersediaan dan Pengelolaan Perpustakaan Desa</t>
+    <t>EDUCATION</t>
+  </si>
+  <si>
+    <t>HEALTH</t>
+  </si>
+  <si>
+    <t>PUBLIC WORKS</t>
+  </si>
+  <si>
+    <t>HOUSING</t>
+  </si>
+  <si>
+    <t>PUBLIC ORDER &amp; SAFETY</t>
+  </si>
+  <si>
+    <t>SOCIAL WELFARE</t>
+  </si>
+  <si>
+    <t>PREGNANT</t>
+  </si>
+  <si>
+    <t>INFANT</t>
+  </si>
+  <si>
+    <t>TODDLER</t>
+  </si>
+  <si>
+    <t>TEENAGER</t>
+  </si>
+  <si>
+    <t>ADULT</t>
+  </si>
+  <si>
+    <t>ELDERLY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -170,8 +121,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,7 +441,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -542,7 +494,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -550,7 +502,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -559,291 +511,69 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EC52E6D-CD5B-B243-93C3-50D1803FB875}">
-  <dimension ref="A1:C25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E0EFF7-0950-0A4B-A5E9-24A5143D1029}">
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="218.1640625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="C13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
-      <c r="C14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>3</v>
-      </c>
-      <c r="C15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>3</v>
-      </c>
-      <c r="C16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>4</v>
-      </c>
-      <c r="C17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>4</v>
-      </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>5</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>5</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>5</v>
-      </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>5</v>
-      </c>
-      <c r="C22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>6</v>
-      </c>
-      <c r="C23" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>6</v>
-      </c>
-      <c r="C24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>6</v>
-      </c>
-      <c r="C25" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/database/masters/data-seeder.xlsx
+++ b/database/masters/data-seeder.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monoland/Herd/devsiruhay/modules/posyandu/database/masters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D04EC705-B05F-B242-8F0D-BF9A6BE6946F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C924C9F-8533-6749-8D4C-D22D2D3C63A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{88509390-9D79-EC44-A899-AADF9E467E17}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{88509390-9D79-EC44-A899-AADF9E467E17}"/>
   </bookViews>
   <sheets>
     <sheet name="services" sheetId="1" r:id="rId1"/>
     <sheet name="categories" sheetId="2" r:id="rId2"/>
+    <sheet name="documents" sheetId="3" r:id="rId3"/>
+    <sheet name="docmaps" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="36">
   <si>
     <t>id</t>
   </si>
@@ -78,13 +80,79 @@
   </si>
   <si>
     <t>ELDERLY</t>
+  </si>
+  <si>
+    <t>Dok. Kartu Keluarga</t>
+  </si>
+  <si>
+    <t>Dok. KTP</t>
+  </si>
+  <si>
+    <t>Dok. Hasil Verifikasi Data dan Kunjungan Lapangan</t>
+  </si>
+  <si>
+    <t>Dok. Rekapitulasi Hasil Pelayanan</t>
+  </si>
+  <si>
+    <t>Dok. Surat Permohonan Kepala Dusun/RT</t>
+  </si>
+  <si>
+    <t>Dok. Lokasi-lokasi Titik Tempat Pembangunan Sarana dan Prasarana</t>
+  </si>
+  <si>
+    <t>Dok. Surat Pernyataan Calon Penerima Belum Pernah Menerima Bantuan Rehabilitasi Rumah</t>
+  </si>
+  <si>
+    <t>Dok. Surat Keterangan Penghasilan dari Desa</t>
+  </si>
+  <si>
+    <t>Dok. Surat Tanah atau Sejenisnya</t>
+  </si>
+  <si>
+    <t>Dok. Foto Kondisi Rumah Calon Penerima Bantuan (3 Sisi)</t>
+  </si>
+  <si>
+    <t>Dok. Surat Pengaduan</t>
+  </si>
+  <si>
+    <t>Dok. Keluhan</t>
+  </si>
+  <si>
+    <t>Dok. Surat Pernyataan dari Pemerintah Desa/Kelurahan</t>
+  </si>
+  <si>
+    <t>Dok. Surat Keterangan Tidak Mampu</t>
+  </si>
+  <si>
+    <t>service_id</t>
+  </si>
+  <si>
+    <t>document_id</t>
+  </si>
+  <si>
+    <t>mime</t>
+  </si>
+  <si>
+    <t>application/pdf</t>
+  </si>
+  <si>
+    <t>extension</t>
+  </si>
+  <si>
+    <t>.pdf</t>
+  </si>
+  <si>
+    <t>maxsize</t>
+  </si>
+  <si>
+    <t>required</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -99,6 +167,28 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Fira Code Regular"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Fira Code Regular"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Fira Code Regular"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Fira Code Regular"/>
     </font>
   </fonts>
   <fills count="2">
@@ -121,9 +211,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,15 +544,15 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -457,7 +560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -465,7 +568,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -473,7 +576,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -481,7 +584,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -489,7 +592,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -497,7 +600,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -514,13 +617,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E0EFF7-0950-0A4B-A5E9-24A5143D1029}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -528,7 +631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -536,7 +639,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -544,7 +647,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -552,7 +655,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -560,7 +663,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -568,12 +671,671 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD16C7C-D101-2B40-884F-2FBEAFED4263}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="3.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="103.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="4" customFormat="1">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2048</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B15">
+    <sortCondition ref="B2:B15"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04EF6B23-CA38-2849-8D3F-AAD28AAD5E63}">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="103.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.1640625" style="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="17">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="17">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="17">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="17">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="2">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="17">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="17">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2</v>
+      </c>
+      <c r="E6" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="17">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2">
+        <v>11</v>
+      </c>
+      <c r="D7" s="3">
+        <v>3</v>
+      </c>
+      <c r="E7" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="17">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="2">
+        <v>6</v>
+      </c>
+      <c r="D8" s="3">
+        <v>3</v>
+      </c>
+      <c r="E8" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="17">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3">
+        <v>3</v>
+      </c>
+      <c r="E9" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="17">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3</v>
+      </c>
+      <c r="D10" s="3">
+        <v>4</v>
+      </c>
+      <c r="E10" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="17">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="2">
+        <v>5</v>
+      </c>
+      <c r="D11" s="3">
+        <v>4</v>
+      </c>
+      <c r="E11" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="17">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="2">
+        <v>12</v>
+      </c>
+      <c r="D12" s="3">
+        <v>4</v>
+      </c>
+      <c r="E12" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="17">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="2">
+        <v>9</v>
+      </c>
+      <c r="D13" s="3">
+        <v>4</v>
+      </c>
+      <c r="E13" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="17">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="2">
+        <v>14</v>
+      </c>
+      <c r="D14" s="3">
+        <v>4</v>
+      </c>
+      <c r="E14" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="17">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
+        <v>4</v>
+      </c>
+      <c r="E15" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="17">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="2">
+        <v>2</v>
+      </c>
+      <c r="D16" s="3">
+        <v>4</v>
+      </c>
+      <c r="E16" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="17">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="2">
+        <v>5</v>
+      </c>
+      <c r="D17" s="3">
+        <v>5</v>
+      </c>
+      <c r="E17" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="17">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="2">
+        <v>10</v>
+      </c>
+      <c r="D18" s="3">
+        <v>5</v>
+      </c>
+      <c r="E18" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="17">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="2">
+        <v>5</v>
+      </c>
+      <c r="D19" s="3">
+        <v>6</v>
+      </c>
+      <c r="E19" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="17">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="2">
+        <v>4</v>
+      </c>
+      <c r="D20" s="3">
+        <v>6</v>
+      </c>
+      <c r="E20" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="17">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="2">
+        <v>13</v>
+      </c>
+      <c r="D21" s="3">
+        <v>6</v>
+      </c>
+      <c r="E21" s="7" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/database/masters/data-seeder.xlsx
+++ b/database/masters/data-seeder.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monoland/Herd/devsiruhay/modules/posyandu/database/masters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C924C9F-8533-6749-8D4C-D22D2D3C63A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F75570F1-1BCA-F045-968E-65793D12A8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{88509390-9D79-EC44-A899-AADF9E467E17}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{88509390-9D79-EC44-A899-AADF9E467E17}"/>
   </bookViews>
   <sheets>
     <sheet name="services" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="43">
   <si>
     <t>id</t>
   </si>
@@ -146,6 +146,27 @@
   </si>
   <si>
     <t>required</t>
+  </si>
+  <si>
+    <t>Pendidikan</t>
+  </si>
+  <si>
+    <t>Kesehatan</t>
+  </si>
+  <si>
+    <t>Pekerjaan Umum</t>
+  </si>
+  <si>
+    <t>Perumahan Rakyat</t>
+  </si>
+  <si>
+    <t>Sosial</t>
+  </si>
+  <si>
+    <t>slug</t>
+  </si>
+  <si>
+    <t>Ketentraman, Ketertiban Umum, dan Perlindungan Masyarakat</t>
   </si>
 </sst>
 </file>
@@ -541,70 +562,93 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA4A621D-9717-5B47-B29D-27E5B419D0AF}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="72.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:3" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
         <v>7</v>
       </c>
     </row>
@@ -968,7 +1012,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04EF6B23-CA38-2849-8D3F-AAD28AAD5E63}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>

--- a/database/masters/data-seeder.xlsx
+++ b/database/masters/data-seeder.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monoland/Herd/devsiruhay/modules/posyandu/database/masters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F75570F1-1BCA-F045-968E-65793D12A8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12275FD1-061E-594E-B030-D36804CEDD31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{88509390-9D79-EC44-A899-AADF9E467E17}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{88509390-9D79-EC44-A899-AADF9E467E17}"/>
   </bookViews>
   <sheets>
     <sheet name="services" sheetId="1" r:id="rId1"/>
@@ -64,24 +64,6 @@
     <t>SOCIAL WELFARE</t>
   </si>
   <si>
-    <t>PREGNANT</t>
-  </si>
-  <si>
-    <t>INFANT</t>
-  </si>
-  <si>
-    <t>TODDLER</t>
-  </si>
-  <si>
-    <t>TEENAGER</t>
-  </si>
-  <si>
-    <t>ADULT</t>
-  </si>
-  <si>
-    <t>ELDERLY</t>
-  </si>
-  <si>
     <t>Dok. Kartu Keluarga</t>
   </si>
   <si>
@@ -167,6 +149,24 @@
   </si>
   <si>
     <t>Ketentraman, Ketertiban Umum, dan Perlindungan Masyarakat</t>
+  </si>
+  <si>
+    <t>Wanita Hamil</t>
+  </si>
+  <si>
+    <t>Bayi</t>
+  </si>
+  <si>
+    <t>Balita</t>
+  </si>
+  <si>
+    <t>Remaja</t>
+  </si>
+  <si>
+    <t>Dewasa</t>
+  </si>
+  <si>
+    <t>Orangtua</t>
   </si>
 </sst>
 </file>
@@ -564,7 +564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA4A621D-9717-5B47-B29D-27E5B419D0AF}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -583,7 +583,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -591,7 +591,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -602,7 +602,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -613,7 +613,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -624,7 +624,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -635,7 +635,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -646,7 +646,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -661,11 +661,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E0EFF7-0950-0A4B-A5E9-24A5143D1029}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
@@ -680,7 +683,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -688,7 +691,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -696,7 +699,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -704,7 +707,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -712,7 +715,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -720,7 +723,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -753,13 +756,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -767,13 +770,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E2" s="3">
         <v>2048</v>
@@ -784,13 +787,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E3" s="3">
         <v>2048</v>
@@ -801,13 +804,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E4" s="3">
         <v>2048</v>
@@ -818,13 +821,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E5" s="3">
         <v>2048</v>
@@ -835,13 +838,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E6" s="3">
         <v>2048</v>
@@ -852,13 +855,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E7" s="3">
         <v>2048</v>
@@ -869,13 +872,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E8" s="3">
         <v>2048</v>
@@ -886,13 +889,13 @@
         <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E9" s="3">
         <v>2048</v>
@@ -903,13 +906,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="E10" s="3">
         <v>2048</v>
@@ -920,13 +923,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E11" s="3">
         <v>2048</v>
@@ -937,13 +940,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E12" s="3">
         <v>2048</v>
@@ -954,13 +957,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E13" s="3">
         <v>2048</v>
@@ -971,13 +974,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E14" s="3">
         <v>2048</v>
@@ -988,13 +991,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E15" s="3">
         <v>2048</v>
@@ -1033,13 +1036,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17">
@@ -1047,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2">
         <v>3</v>
@@ -1064,7 +1067,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2">
         <v>5</v>
@@ -1081,7 +1084,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C4" s="2">
         <v>8</v>
@@ -1098,7 +1101,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2">
         <v>2</v>
@@ -1115,7 +1118,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C6" s="2">
         <v>7</v>
@@ -1132,7 +1135,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C7" s="2">
         <v>11</v>
@@ -1149,7 +1152,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C8" s="2">
         <v>6</v>
@@ -1166,7 +1169,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C9" s="2">
         <v>2</v>
@@ -1183,7 +1186,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C10" s="2">
         <v>3</v>
@@ -1200,7 +1203,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C11" s="2">
         <v>5</v>
@@ -1217,7 +1220,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C12" s="2">
         <v>12</v>
@@ -1234,7 +1237,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C13" s="2">
         <v>9</v>
@@ -1251,7 +1254,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C14" s="2">
         <v>14</v>
@@ -1268,7 +1271,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C15" s="2">
         <v>1</v>
@@ -1285,7 +1288,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C16" s="2">
         <v>2</v>
@@ -1302,7 +1305,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C17" s="2">
         <v>5</v>
@@ -1319,7 +1322,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C18" s="2">
         <v>10</v>
@@ -1336,7 +1339,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C19" s="2">
         <v>5</v>
@@ -1353,7 +1356,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C20" s="2">
         <v>4</v>
@@ -1370,7 +1373,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C21" s="2">
         <v>13</v>

--- a/database/masters/data-seeder.xlsx
+++ b/database/masters/data-seeder.xlsx
@@ -8,16 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monoland/Herd/devsiruhay/modules/posyandu/database/masters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12275FD1-061E-594E-B030-D36804CEDD31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954AA91F-076E-4246-8349-CE5C6B06DEB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{88509390-9D79-EC44-A899-AADF9E467E17}"/>
   </bookViews>
   <sheets>
     <sheet name="services" sheetId="1" r:id="rId1"/>
-    <sheet name="categories" sheetId="2" r:id="rId2"/>
-    <sheet name="documents" sheetId="3" r:id="rId3"/>
-    <sheet name="docmaps" sheetId="4" r:id="rId4"/>
+    <sheet name="indicators" sheetId="5" r:id="rId2"/>
+    <sheet name="categories" sheetId="2" r:id="rId3"/>
+    <sheet name="documents" sheetId="3" r:id="rId4"/>
+    <sheet name="docmaps" sheetId="4" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">indicators!$A$2:$C$14</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="76">
   <si>
     <t>id</t>
   </si>
@@ -52,18 +56,9 @@
     <t>HEALTH</t>
   </si>
   <si>
-    <t>PUBLIC WORKS</t>
-  </si>
-  <si>
     <t>HOUSING</t>
   </si>
   <si>
-    <t>PUBLIC ORDER &amp; SAFETY</t>
-  </si>
-  <si>
-    <t>SOCIAL WELFARE</t>
-  </si>
-  <si>
     <t>Dok. Kartu Keluarga</t>
   </si>
   <si>
@@ -136,21 +131,12 @@
     <t>Kesehatan</t>
   </si>
   <si>
-    <t>Pekerjaan Umum</t>
-  </si>
-  <si>
-    <t>Perumahan Rakyat</t>
-  </si>
-  <si>
     <t>Sosial</t>
   </si>
   <si>
     <t>slug</t>
   </si>
   <si>
-    <t>Ketentraman, Ketertiban Umum, dan Perlindungan Masyarakat</t>
-  </si>
-  <si>
     <t>Wanita Hamil</t>
   </si>
   <si>
@@ -167,13 +153,130 @@
   </si>
   <si>
     <t>Orangtua</t>
+  </si>
+  <si>
+    <t>Ibu Hamil</t>
+  </si>
+  <si>
+    <t>Bayi Lahir</t>
+  </si>
+  <si>
+    <t>Balita Gizi Kurang</t>
+  </si>
+  <si>
+    <t>Imunisasi</t>
+  </si>
+  <si>
+    <t>Stunting</t>
+  </si>
+  <si>
+    <t>Tenaga Kesehatan</t>
+  </si>
+  <si>
+    <t>Faskes Aktif</t>
+  </si>
+  <si>
+    <t>Anak Usia SD</t>
+  </si>
+  <si>
+    <t>Terdaftar Sekolah</t>
+  </si>
+  <si>
+    <t>Tidak Sekolah</t>
+  </si>
+  <si>
+    <t>Sekolah Terjangkau</t>
+  </si>
+  <si>
+    <t>Guru Aktif</t>
+  </si>
+  <si>
+    <t>Ruang Kelas Baik</t>
+  </si>
+  <si>
+    <t>Keamanan</t>
+  </si>
+  <si>
+    <t>Tata Ruang</t>
+  </si>
+  <si>
+    <t>SAFETY</t>
+  </si>
+  <si>
+    <t>SOCIAL</t>
+  </si>
+  <si>
+    <t>SPATIAL</t>
+  </si>
+  <si>
+    <t>Panjang Jalan Mantap</t>
+  </si>
+  <si>
+    <t>Total Jalan</t>
+  </si>
+  <si>
+    <t>Cakupan Air Minum</t>
+  </si>
+  <si>
+    <t>Drainase</t>
+  </si>
+  <si>
+    <t>RTRW Sesuai</t>
+  </si>
+  <si>
+    <t>Rumah Layak Huni</t>
+  </si>
+  <si>
+    <t>Rumah Tidak Layak Huni</t>
+  </si>
+  <si>
+    <t>Program Perbaikan</t>
+  </si>
+  <si>
+    <t>Akses Air Bersih</t>
+  </si>
+  <si>
+    <t>Sanitasi</t>
+  </si>
+  <si>
+    <t>Perumahan</t>
+  </si>
+  <si>
+    <t>Kasus Gangguan</t>
+  </si>
+  <si>
+    <t>Penanganan Cepat</t>
+  </si>
+  <si>
+    <t>Waktu Tanggap</t>
+  </si>
+  <si>
+    <t>Bencana Alam</t>
+  </si>
+  <si>
+    <t>Posko Aktif</t>
+  </si>
+  <si>
+    <t>Anak Terlantar</t>
+  </si>
+  <si>
+    <t>Lansia Terlantar</t>
+  </si>
+  <si>
+    <t>Disabilitas Terlayani</t>
+  </si>
+  <si>
+    <t>Bantuan Sosial</t>
+  </si>
+  <si>
+    <t>Pendampingan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -211,6 +314,17 @@
       <color rgb="FF000000"/>
       <name val="Fira Code Regular"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Fira Code Regular"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Fira Code Regular"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -232,7 +346,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -248,6 +362,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -565,91 +681,92 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="72.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>35</v>
+    <row r="1" spans="1:3" s="4" customFormat="1">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
+      <c r="B5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
+      <c r="B7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -658,72 +775,472 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD1CF593-5E02-6544-AB85-368A7D84D099}">
+  <dimension ref="A1:C34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="10" customFormat="1">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="9">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="9">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="9">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="9">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="9">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="9">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="9">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="9">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="9">
+        <v>14</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="9">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="9">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="9">
+        <v>17</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="9">
+        <v>18</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="9">
+        <v>19</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="9">
+        <v>20</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="9">
+        <v>21</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="9">
+        <v>22</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="9">
+        <v>23</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="9">
+        <v>24</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="9">
+        <v>25</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="9">
+        <v>26</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="9">
+        <v>27</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="9">
+        <v>28</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="9">
+        <v>29</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="9">
+        <v>30</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="9">
+        <v>31</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="9">
+        <v>32</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="9">
+        <v>33</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="9">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C14">
+    <sortCondition ref="C2:C14"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E0EFF7-0950-0A4B-A5E9-24A5143D1029}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
-    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>37</v>
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>38</v>
+      <c r="B3" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>39</v>
+      <c r="B4" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>40</v>
+      <c r="B5" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>41</v>
+      <c r="B6" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>42</v>
+      <c r="B7" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -731,12 +1248,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD16C7C-D101-2B40-884F-2FBEAFED4263}">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -756,13 +1273,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -770,13 +1287,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E2" s="3">
         <v>2048</v>
@@ -787,13 +1304,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E3" s="3">
         <v>2048</v>
@@ -804,13 +1321,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E4" s="3">
         <v>2048</v>
@@ -821,13 +1338,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E5" s="3">
         <v>2048</v>
@@ -838,13 +1355,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E6" s="3">
         <v>2048</v>
@@ -855,13 +1372,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E7" s="3">
         <v>2048</v>
@@ -872,13 +1389,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E8" s="3">
         <v>2048</v>
@@ -889,13 +1406,13 @@
         <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E9" s="3">
         <v>2048</v>
@@ -906,13 +1423,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E10" s="3">
         <v>2048</v>
@@ -923,13 +1440,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E11" s="3">
         <v>2048</v>
@@ -940,13 +1457,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E12" s="3">
         <v>2048</v>
@@ -957,13 +1474,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E13" s="3">
         <v>2048</v>
@@ -974,13 +1491,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E14" s="3">
         <v>2048</v>
@@ -991,13 +1508,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E15" s="3">
         <v>2048</v>
@@ -1011,7 +1528,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04EF6B23-CA38-2849-8D3F-AAD28AAD5E63}">
   <dimension ref="A1:E21"/>
   <sheetViews>
@@ -1036,13 +1553,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17">
@@ -1050,7 +1567,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2">
         <v>3</v>
@@ -1067,7 +1584,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2">
         <v>5</v>
@@ -1084,7 +1601,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
         <v>8</v>
@@ -1101,7 +1618,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C5" s="2">
         <v>2</v>
@@ -1118,7 +1635,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C6" s="2">
         <v>7</v>
@@ -1135,7 +1652,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C7" s="2">
         <v>11</v>
@@ -1152,7 +1669,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C8" s="2">
         <v>6</v>
@@ -1169,7 +1686,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C9" s="2">
         <v>2</v>
@@ -1186,7 +1703,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C10" s="2">
         <v>3</v>
@@ -1203,7 +1720,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C11" s="2">
         <v>5</v>
@@ -1220,7 +1737,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C12" s="2">
         <v>12</v>
@@ -1237,7 +1754,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C13" s="2">
         <v>9</v>
@@ -1254,7 +1771,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C14" s="2">
         <v>14</v>
@@ -1271,7 +1788,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C15" s="2">
         <v>1</v>
@@ -1288,7 +1805,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C16" s="2">
         <v>2</v>
@@ -1305,7 +1822,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C17" s="2">
         <v>5</v>
@@ -1322,7 +1839,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C18" s="2">
         <v>10</v>
@@ -1339,7 +1856,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C19" s="2">
         <v>5</v>
@@ -1356,7 +1873,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C20" s="2">
         <v>4</v>
@@ -1373,7 +1890,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C21" s="2">
         <v>13</v>
